--- a/Data/EC/NIT-9004771279.xlsx
+++ b/Data/EC/NIT-9004771279.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C75362-9DEE-4603-9495-EC0BAF9B05DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0270A2-6C1A-49D3-9664-DF1614ED09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B431691-4EB7-40F8-96A5-68D632368A37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C57EAA83-129B-4474-89B8-3501C277FD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="68">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,136 +74,139 @@
     <t>1812</t>
   </si>
   <si>
+    <t>73239605</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO BENAVIDES</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>1096254830</t>
   </si>
   <si>
     <t>TOMAS YECID GARCIA PEÃ?A</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>73239605</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO BENAVIDES</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -617,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA4DDDD-46D0-6C8C-D3FB-8A691B6D337D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC6C760-0761-7E58-9688-03187CB06F39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2C7E36-F98F-4D82-BBB5-062FC2A3E2D5}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376536D2-2414-414E-BCF6-5505009ED8E9}">
+  <dimension ref="B2:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -993,7 +996,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1038,7 +1041,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1070,12 +1073,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2914269</v>
+        <v>3000669</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1086,17 +1089,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1123,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1169,10 +1172,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>20000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1192,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1215,10 +1218,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1238,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1261,10 +1264,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1284,10 +1287,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1307,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1353,10 +1356,10 @@
         <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1376,10 +1379,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1399,10 +1402,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1413,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F28" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1442,13 +1445,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1465,13 +1468,13 @@
         <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1482,10 +1485,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
@@ -1505,10 +1508,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
@@ -1534,13 +1537,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1580,13 +1583,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1603,13 +1606,13 @@
         <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1620,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1649,13 +1652,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1666,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1695,13 +1698,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1712,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1741,13 +1744,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1758,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1787,13 +1790,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1804,13 +1807,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1833,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>34027</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1850,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1873,19 +1876,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1896,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1919,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1942,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1965,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1988,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2011,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2034,19 +2037,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2057,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2080,19 +2083,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F57" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2103,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2126,19 +2129,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2149,19 +2152,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2172,13 +2175,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2195,13 +2198,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2218,19 +2221,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2241,19 +2244,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2264,13 +2267,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2287,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2310,19 +2313,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2333,19 +2336,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2356,13 +2359,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2379,19 +2382,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2402,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2425,19 +2428,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2448,13 +2451,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2471,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G74" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2494,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2517,13 +2520,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2540,19 +2543,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F77" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2563,19 +2566,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2586,13 +2589,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2609,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2632,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2655,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F82" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2678,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2701,75 +2704,121 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="22" t="s">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F85" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G85" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
+      <c r="F86" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="24">
+        <v>20000</v>
+      </c>
+      <c r="G87" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="H92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="C93" s="32"/>
+      <c r="H93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004771279.xlsx
+++ b/Data/EC/NIT-9004771279.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0270A2-6C1A-49D3-9664-DF1614ED09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6DDFFD-B0D3-4910-8BFC-1FEC622183D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C57EAA83-129B-4474-89B8-3501C277FD2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{882FDEC7-77AF-4627-8AEC-D505A4DAB612}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,139 +74,142 @@
     <t>1812</t>
   </si>
   <si>
+    <t>1096254830</t>
+  </si>
+  <si>
+    <t>TOMAS YECID GARCIA PEÃ?A</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
     <t>73239605</t>
   </si>
   <si>
     <t>JOSE GREGORIO BENAVIDES</t>
   </si>
   <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1096254830</t>
-  </si>
-  <si>
-    <t>TOMAS YECID GARCIA PEÃ?A</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -305,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -318,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC6C760-0761-7E58-9688-03187CB06F39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643ABF7A-4BB7-DC95-50CA-AAD87E072083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376536D2-2414-414E-BCF6-5505009ED8E9}">
-  <dimension ref="B2:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C22C6C-C809-4802-87CB-6AFEAD813B2F}">
+  <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -996,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1041,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1073,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3000669</v>
+        <v>3087069</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1089,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1126,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1172,10 +1175,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>20000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1195,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,10 +1221,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1241,10 +1244,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,10 +1290,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,10 +1313,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1333,10 +1336,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,10 +1382,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1402,10 +1405,10 @@
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1416,16 +1419,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>34027</v>
       </c>
       <c r="G28" s="18">
         <v>1160000</v>
@@ -1445,13 +1448,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1462,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1494,10 +1497,10 @@
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1508,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
@@ -1537,13 +1540,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1554,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1583,13 +1586,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1600,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1629,13 +1632,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1646,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1675,13 +1678,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1692,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1721,13 +1724,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1738,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1767,13 +1770,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1784,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1813,13 +1816,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1830,16 +1833,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F46" s="18">
-        <v>34027</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
         <v>1160000</v>
@@ -1853,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1876,19 +1879,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1899,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1922,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1945,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1968,19 +1971,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1991,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2014,19 +2017,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F54" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2037,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2060,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2083,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2106,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2129,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2152,19 +2155,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2175,13 +2178,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2198,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2221,13 +2224,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2244,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F64" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2267,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2290,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2313,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2336,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F68" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G68" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2359,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2382,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2405,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2428,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F72" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G72" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2451,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2474,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2497,13 +2500,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2520,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2543,13 +2546,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2566,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2589,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2612,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2635,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2658,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2681,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2704,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2727,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2750,75 +2753,121 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="22" t="s">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F87" s="24">
-        <v>20000</v>
-      </c>
-      <c r="G87" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="32" t="s">
+      <c r="F87" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G89" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="H94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="H92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="H93" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="C95" s="32"/>
+      <c r="H95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H94:J94"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
